--- a/tests/testthat/fixtures/ex3/tables/mv_person_booklet1.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/mv_person_booklet1.xlsx
@@ -61,25 +61,25 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
   </si>
   <si>
     <t xml:space="preserve">0.86</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96</t>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>81.3</v>
+        <v>81.47</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>17.08</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="4">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>94.99</v>
+        <v>94.56</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>49.48</v>
+        <v>53.97</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>37.7</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>9.72</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.88</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>36.67</v>
+        <v>39.12</v>
       </c>
     </row>
     <row r="3">
@@ -624,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>41.09</v>
+        <v>41.47</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>16.64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.03</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.88</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -763,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
